--- a/data/Region_Junin.xlsx
+++ b/data/Region_Junin.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\GitHub\1ECO35_2022_2\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B929B-D4C0-48DB-8D8E-065FE6386D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="255">
   <si>
     <t>Region</t>
   </si>
@@ -262,9 +268,6 @@
     <t>PASCO</t>
   </si>
   <si>
-    <t>QUIRLACOCHA</t>
-  </si>
-  <si>
     <t>CAJAMARQUILLA</t>
   </si>
   <si>
@@ -272,9 +275,6 @@
   </si>
   <si>
     <t>ROCO</t>
-  </si>
-  <si>
-    <t>C.SACRA FAMILIA</t>
   </si>
   <si>
     <t>P.QUINUA</t>
@@ -319,16 +319,10 @@
     <t>A. COLPAS</t>
   </si>
   <si>
-    <t>P.YACAS</t>
-  </si>
-  <si>
     <t>C.MASQUIN</t>
   </si>
   <si>
     <t>P.YAMOR</t>
-  </si>
-  <si>
-    <t>PÁUCAR</t>
   </si>
   <si>
     <t>TANGOR</t>
@@ -472,9 +466,6 @@
     <t>TRAGADERO</t>
   </si>
   <si>
-    <t>CHOCÓN</t>
-  </si>
-  <si>
     <t>ACAYA</t>
   </si>
   <si>
@@ -482,9 +473,6 @@
   </si>
   <si>
     <t>CURICACA</t>
-  </si>
-  <si>
-    <t>P.CINCOS</t>
   </si>
   <si>
     <t>C.LLACUARI</t>
@@ -575,9 +563,6 @@
   </si>
   <si>
     <t>SAN JUAN DE TARPA</t>
-  </si>
-  <si>
-    <t>YANACANCHA</t>
   </si>
   <si>
     <t>COPCA</t>
@@ -700,9 +685,6 @@
     <t>HUAMANMARCA</t>
   </si>
   <si>
-    <t>VIQUES</t>
-  </si>
-  <si>
     <t>CACAS</t>
   </si>
   <si>
@@ -725,9 +707,6 @@
   </si>
   <si>
     <t>MULLUERO</t>
-  </si>
-  <si>
-    <t>ANDAMARCA</t>
   </si>
   <si>
     <t>CHANCHA</t>
@@ -793,9 +772,6 @@
     <t>P.SAN RAMÓN</t>
   </si>
   <si>
-    <t>LA MERCED</t>
-  </si>
-  <si>
     <t>P.VISCATÁN</t>
   </si>
   <si>
@@ -808,17 +784,14 @@
     <t>P.POMACOCHA</t>
   </si>
   <si>
-    <t>PACHACHACA</t>
-  </si>
-  <si>
     <t>MINAS DE MOROCOCHA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,11 +854,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -927,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -959,9 +940,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -993,6 +992,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1168,14 +1185,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q28" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1428,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1556,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1684,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1812,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1940,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1950,9 +1969,6 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
       <c r="E7">
         <v>6</v>
       </c>
@@ -2068,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2079,7 +2095,7 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -2196,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2207,7 +2223,7 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -2324,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2335,7 +2351,7 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -2382,9 +2398,6 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>49</v>
-      </c>
       <c r="U10">
         <v>23</v>
       </c>
@@ -2445,14 +2458,11 @@
       <c r="AN10">
         <v>70</v>
       </c>
-      <c r="AO10">
-        <v>2</v>
-      </c>
       <c r="AP10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2462,9 +2472,6 @@
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
       <c r="E11">
         <v>16</v>
       </c>
@@ -2573,14 +2580,11 @@
       <c r="AN11">
         <v>73</v>
       </c>
-      <c r="AO11">
-        <v>2</v>
-      </c>
       <c r="AP11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2591,7 +2595,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -2668,9 +2672,6 @@
       <c r="AC12">
         <v>0</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -2763,9 +2764,6 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
       <c r="T13">
         <v>12</v>
       </c>
@@ -2793,9 +2791,6 @@
       <c r="AB13">
         <v>30</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
       <c r="AD13">
         <v>0</v>
       </c>
@@ -2826,9 +2821,6 @@
       <c r="AM13">
         <v>0</v>
       </c>
-      <c r="AN13">
-        <v>24</v>
-      </c>
       <c r="AO13">
         <v>6</v>
       </c>
@@ -2836,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2847,7 +2839,7 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -2964,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2975,7 +2967,7 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -3040,9 +3032,6 @@
       <c r="Y15">
         <v>0</v>
       </c>
-      <c r="Z15">
-        <v>25</v>
-      </c>
       <c r="AA15">
         <v>25</v>
       </c>
@@ -3055,9 +3044,6 @@
       <c r="AD15">
         <v>0</v>
       </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
       <c r="AF15">
         <v>25</v>
       </c>
@@ -3070,9 +3056,6 @@
       <c r="AI15">
         <v>25</v>
       </c>
-      <c r="AJ15">
-        <v>25</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
@@ -3092,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3103,7 +3086,7 @@
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -3114,9 +3097,6 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16">
-        <v>55</v>
-      </c>
       <c r="I16">
         <v>37</v>
       </c>
@@ -3220,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3231,7 +3211,7 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3348,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3359,7 +3339,7 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3403,9 +3383,6 @@
       <c r="R18">
         <v>0</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
       <c r="T18">
         <v>11</v>
       </c>
@@ -3476,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3487,7 +3464,7 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3604,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3615,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20">
         <v>23</v>
@@ -3732,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3743,7 +3720,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <v>17</v>
@@ -3766,9 +3743,6 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
       <c r="M21">
         <v>0</v>
       </c>
@@ -3860,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3871,7 +3845,7 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -3894,9 +3868,6 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
       <c r="M22">
         <v>0</v>
       </c>
@@ -3936,9 +3907,6 @@
       <c r="Y22">
         <v>0</v>
       </c>
-      <c r="Z22">
-        <v>154</v>
-      </c>
       <c r="AA22">
         <v>97</v>
       </c>
@@ -3978,9 +3946,6 @@
       <c r="AM22">
         <v>0</v>
       </c>
-      <c r="AN22">
-        <v>251</v>
-      </c>
       <c r="AO22">
         <v>0</v>
       </c>
@@ -3988,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4022,9 +3987,6 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
         <v>0</v>
       </c>
@@ -4088,9 +4050,6 @@
       <c r="AG23">
         <v>37</v>
       </c>
-      <c r="AH23">
-        <v>96</v>
-      </c>
       <c r="AI23">
         <v>59</v>
       </c>
@@ -4116,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4127,7 +4086,7 @@
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -4150,9 +4109,6 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
       <c r="M24">
         <v>0</v>
       </c>
@@ -4244,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4255,7 +4211,7 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -4372,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4383,7 +4339,7 @@
         <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4500,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4510,9 +4466,6 @@
       <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="s">
-        <v>101</v>
-      </c>
       <c r="E27">
         <v>4</v>
       </c>
@@ -4628,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4639,7 +4592,7 @@
         <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -4756,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4767,7 +4720,7 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>25</v>
@@ -4884,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4894,9 +4847,6 @@
       <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
       <c r="E30">
         <v>26</v>
       </c>
@@ -5012,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5023,7 +4973,7 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5140,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5151,7 +5101,7 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -5198,9 +5148,6 @@
       <c r="S32">
         <v>0</v>
       </c>
-      <c r="T32">
-        <v>48</v>
-      </c>
       <c r="U32">
         <v>0</v>
       </c>
@@ -5268,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5279,7 +5226,7 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -5353,9 +5300,6 @@
       <c r="AB33">
         <v>86</v>
       </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
       <c r="AD33">
         <v>0</v>
       </c>
@@ -5396,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5407,7 +5351,7 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -5451,9 +5395,6 @@
       <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
       <c r="T34">
         <v>31</v>
       </c>
@@ -5469,9 +5410,6 @@
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
       <c r="Z34">
         <v>31</v>
       </c>
@@ -5524,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5535,7 +5473,7 @@
         <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5612,9 +5550,6 @@
       <c r="AC35">
         <v>0</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0</v>
       </c>
@@ -5652,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5663,7 +5598,7 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -5740,9 +5675,6 @@
       <c r="AC36">
         <v>0</v>
       </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
       <c r="AE36">
         <v>0</v>
       </c>
@@ -5780,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5791,7 +5723,7 @@
         <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -5908,7 +5840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5919,7 +5851,7 @@
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -6036,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6047,7 +5979,7 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -6091,9 +6023,6 @@
       <c r="R39">
         <v>0</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
       <c r="T39">
         <v>25</v>
       </c>
@@ -6164,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6175,7 +6104,7 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -6219,9 +6148,6 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
       <c r="T40">
         <v>21</v>
       </c>
@@ -6292,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6303,7 +6229,7 @@
         <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -6410,9 +6336,6 @@
       <c r="AM41">
         <v>0</v>
       </c>
-      <c r="AN41">
-        <v>74</v>
-      </c>
       <c r="AO41">
         <v>0</v>
       </c>
@@ -6420,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6431,7 +6354,7 @@
         <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -6472,9 +6395,6 @@
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
         <v>0</v>
       </c>
@@ -6493,9 +6413,6 @@
       <c r="X42">
         <v>0</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
       <c r="Z42">
         <v>25</v>
       </c>
@@ -6548,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6559,7 +6476,7 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -6676,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6687,7 +6604,7 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -6746,9 +6663,6 @@
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
       <c r="Y44">
         <v>0</v>
       </c>
@@ -6804,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6815,7 +6729,7 @@
         <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E45">
         <v>9</v>
@@ -6913,9 +6827,6 @@
       <c r="AJ45">
         <v>50</v>
       </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
       <c r="AL45">
         <v>0</v>
       </c>
@@ -6932,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6943,7 +6854,7 @@
         <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E46">
         <v>17</v>
@@ -7060,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7071,7 +6982,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E47">
         <v>15</v>
@@ -7178,9 +7089,6 @@
       <c r="AM47">
         <v>25</v>
       </c>
-      <c r="AN47">
-        <v>47</v>
-      </c>
       <c r="AO47">
         <v>0</v>
       </c>
@@ -7188,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7199,7 +7107,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -7316,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7327,7 +7235,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E49">
         <v>69</v>
@@ -7444,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7455,7 +7363,7 @@
         <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E50">
         <v>12</v>
@@ -7572,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7583,7 +7491,7 @@
         <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -7684,9 +7592,6 @@
       <c r="AK51">
         <v>0</v>
       </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
       <c r="AM51">
         <v>0</v>
       </c>
@@ -7700,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7711,7 +7616,7 @@
         <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -7828,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7839,7 +7744,7 @@
         <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>22</v>
@@ -7904,9 +7809,6 @@
       <c r="Y53">
         <v>32</v>
       </c>
-      <c r="Z53">
-        <v>94</v>
-      </c>
       <c r="AA53">
         <v>124</v>
       </c>
@@ -7956,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:42">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7967,7 +7869,7 @@
         <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -8084,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:42">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8095,7 +7997,7 @@
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E55">
         <v>27</v>
@@ -8212,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8223,7 +8125,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E56">
         <v>24</v>
@@ -8327,9 +8229,6 @@
       <c r="AL56">
         <v>0</v>
       </c>
-      <c r="AM56">
-        <v>0</v>
-      </c>
       <c r="AN56">
         <v>104</v>
       </c>
@@ -8340,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8351,7 +8250,7 @@
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E57">
         <v>9</v>
@@ -8404,9 +8303,6 @@
       <c r="U57">
         <v>36</v>
       </c>
-      <c r="V57">
-        <v>78</v>
-      </c>
       <c r="W57">
         <v>1</v>
       </c>
@@ -8468,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8479,7 +8375,7 @@
         <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E58">
         <v>19</v>
@@ -8580,9 +8476,6 @@
       <c r="AK58">
         <v>0</v>
       </c>
-      <c r="AL58">
-        <v>0</v>
-      </c>
       <c r="AM58">
         <v>0</v>
       </c>
@@ -8596,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:42">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -8607,7 +8500,7 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E59">
         <v>36</v>
@@ -8724,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:42">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -8735,7 +8628,7 @@
         <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E60">
         <v>21</v>
@@ -8852,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:42">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -8863,7 +8756,7 @@
         <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E61">
         <v>133</v>
@@ -8922,9 +8815,6 @@
       <c r="W61">
         <v>55</v>
       </c>
-      <c r="X61">
-        <v>5</v>
-      </c>
       <c r="Y61">
         <v>60</v>
       </c>
@@ -8980,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:42">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -8991,7 +8881,7 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E62">
         <v>17</v>
@@ -9108,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:42">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -9119,7 +9009,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E63">
         <v>11</v>
@@ -9236,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:42">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -9247,7 +9137,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E64">
         <v>29</v>
@@ -9364,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -9375,7 +9265,7 @@
         <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E65">
         <v>47</v>
@@ -9492,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -9503,7 +9393,7 @@
         <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E66">
         <v>6</v>
@@ -9620,7 +9510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:42">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -9631,7 +9521,7 @@
         <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -9748,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:42">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -9759,7 +9649,7 @@
         <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E68">
         <v>21</v>
@@ -9876,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:42">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -9887,7 +9777,7 @@
         <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -9940,9 +9830,6 @@
       <c r="U69">
         <v>66</v>
       </c>
-      <c r="V69">
-        <v>120</v>
-      </c>
       <c r="W69">
         <v>37</v>
       </c>
@@ -10004,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:42">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10015,7 +9902,7 @@
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E70">
         <v>12</v>
@@ -10132,7 +10019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:42">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10143,7 +10030,7 @@
         <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -10260,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:42">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10271,7 +10158,7 @@
         <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -10388,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:42">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10399,7 +10286,7 @@
         <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -10446,15 +10333,9 @@
       <c r="S73">
         <v>7</v>
       </c>
-      <c r="T73">
-        <v>11</v>
-      </c>
       <c r="U73">
         <v>17</v>
       </c>
-      <c r="V73">
-        <v>28</v>
-      </c>
       <c r="W73">
         <v>7</v>
       </c>
@@ -10516,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:42">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10527,7 +10408,7 @@
         <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E74">
         <v>58</v>
@@ -10644,7 +10525,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:42">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10655,7 +10536,7 @@
         <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E75">
         <v>18</v>
@@ -10772,7 +10653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:42">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10783,7 +10664,7 @@
         <v>53</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E76">
         <v>45</v>
@@ -10830,9 +10711,6 @@
       <c r="S76">
         <v>67</v>
       </c>
-      <c r="T76">
-        <v>149</v>
-      </c>
       <c r="U76">
         <v>145</v>
       </c>
@@ -10900,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10911,7 +10789,7 @@
         <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E77">
         <v>16</v>
@@ -11028,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11039,7 +10917,7 @@
         <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E78">
         <v>20</v>
@@ -11116,9 +10994,6 @@
       <c r="AC78">
         <v>4</v>
       </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
       <c r="AE78">
         <v>4</v>
       </c>
@@ -11156,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11166,9 +11041,6 @@
       <c r="C79" t="s">
         <v>53</v>
       </c>
-      <c r="D79" t="s">
-        <v>152</v>
-      </c>
       <c r="E79">
         <v>2</v>
       </c>
@@ -11274,9 +11146,6 @@
       <c r="AM79">
         <v>0</v>
       </c>
-      <c r="AN79">
-        <v>40</v>
-      </c>
       <c r="AO79">
         <v>0</v>
       </c>
@@ -11284,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:42">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11295,7 +11164,7 @@
         <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -11412,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11423,7 +11292,7 @@
         <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E81">
         <v>11</v>
@@ -11497,9 +11366,6 @@
       <c r="AB81">
         <v>25</v>
       </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
       <c r="AD81">
         <v>0</v>
       </c>
@@ -11540,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11551,7 +11417,7 @@
         <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E82">
         <v>8</v>
@@ -11668,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11678,9 +11544,6 @@
       <c r="C83" t="s">
         <v>54</v>
       </c>
-      <c r="D83" t="s">
-        <v>156</v>
-      </c>
       <c r="E83">
         <v>9</v>
       </c>
@@ -11796,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11807,7 +11670,7 @@
         <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -11914,9 +11777,6 @@
       <c r="AM84">
         <v>0</v>
       </c>
-      <c r="AN84">
-        <v>71</v>
-      </c>
       <c r="AO84">
         <v>0</v>
       </c>
@@ -11924,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11935,7 +11795,7 @@
         <v>54</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -12052,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:42">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12063,7 +11923,7 @@
         <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -12180,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12191,7 +12051,7 @@
         <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -12308,7 +12168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:42">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12319,7 +12179,7 @@
         <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E88">
         <v>19</v>
@@ -12436,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12447,7 +12307,7 @@
         <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E89">
         <v>19</v>
@@ -12564,7 +12424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12575,7 +12435,7 @@
         <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -12692,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12703,7 +12563,7 @@
         <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E91">
         <v>19</v>
@@ -12820,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12831,7 +12691,7 @@
         <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E92">
         <v>39</v>
@@ -12948,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12959,7 +12819,7 @@
         <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E93">
         <v>27</v>
@@ -13076,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -13087,7 +12947,7 @@
         <v>56</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -13204,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13215,7 +13075,7 @@
         <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E95">
         <v>10</v>
@@ -13332,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -13343,7 +13203,7 @@
         <v>56</v>
       </c>
       <c r="D96" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E96">
         <v>10</v>
@@ -13381,9 +13241,6 @@
       <c r="P96">
         <v>36</v>
       </c>
-      <c r="Q96">
-        <v>2</v>
-      </c>
       <c r="R96">
         <v>0</v>
       </c>
@@ -13460,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:42">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -13471,7 +13328,7 @@
         <v>56</v>
       </c>
       <c r="D97" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E97">
         <v>13</v>
@@ -13518,9 +13375,6 @@
       <c r="S97">
         <v>3</v>
       </c>
-      <c r="T97">
-        <v>35</v>
-      </c>
       <c r="U97">
         <v>21</v>
       </c>
@@ -13588,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:42">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13599,7 +13453,7 @@
         <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E98">
         <v>38</v>
@@ -13716,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:42">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -13727,7 +13581,7 @@
         <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E99">
         <v>28</v>
@@ -13844,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:42">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -13855,7 +13709,7 @@
         <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -13972,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:42">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -13983,7 +13837,7 @@
         <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -14018,9 +13872,6 @@
       <c r="O101">
         <v>37</v>
       </c>
-      <c r="P101">
-        <v>49</v>
-      </c>
       <c r="Q101">
         <v>9</v>
       </c>
@@ -14100,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:42">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -14111,7 +13962,7 @@
         <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E102">
         <v>10</v>
@@ -14158,9 +14009,6 @@
       <c r="S102">
         <v>13</v>
       </c>
-      <c r="T102">
-        <v>65</v>
-      </c>
       <c r="U102">
         <v>54</v>
       </c>
@@ -14218,9 +14066,6 @@
       <c r="AM102">
         <v>0</v>
       </c>
-      <c r="AN102">
-        <v>132</v>
-      </c>
       <c r="AO102">
         <v>0</v>
       </c>
@@ -14228,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:42">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -14239,7 +14084,7 @@
         <v>57</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E103">
         <v>16</v>
@@ -14356,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:42">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -14367,7 +14212,7 @@
         <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E104">
         <v>9</v>
@@ -14484,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:42">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -14495,7 +14340,7 @@
         <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -14602,9 +14447,6 @@
       <c r="AM105">
         <v>0</v>
       </c>
-      <c r="AN105">
-        <v>45</v>
-      </c>
       <c r="AO105">
         <v>0</v>
       </c>
@@ -14612,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:42">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -14740,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:42">
+    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -14751,7 +14593,7 @@
         <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E107">
         <v>10</v>
@@ -14868,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:42">
+    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -14879,7 +14721,7 @@
         <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E108">
         <v>184</v>
@@ -14996,7 +14838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:42">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -15007,7 +14849,7 @@
         <v>60</v>
       </c>
       <c r="D109" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E109">
         <v>40</v>
@@ -15124,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:42">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -15135,7 +14977,7 @@
         <v>60</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E110">
         <v>18</v>
@@ -15252,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:42">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -15263,7 +15105,7 @@
         <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E111">
         <v>82</v>
@@ -15380,7 +15222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:42">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -15391,7 +15233,7 @@
         <v>61</v>
       </c>
       <c r="D112" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E112">
         <v>31</v>
@@ -15508,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:42">
+    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -15519,7 +15361,7 @@
         <v>61</v>
       </c>
       <c r="D113" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E113">
         <v>9</v>
@@ -15636,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:42">
+    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -15647,7 +15489,7 @@
         <v>61</v>
       </c>
       <c r="D114" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E114">
         <v>12</v>
@@ -15764,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:42">
+    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -15775,7 +15617,7 @@
         <v>61</v>
       </c>
       <c r="D115" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E115">
         <v>13</v>
@@ -15892,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:42">
+    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -15902,9 +15744,6 @@
       <c r="C116" t="s">
         <v>61</v>
       </c>
-      <c r="D116" t="s">
-        <v>187</v>
-      </c>
       <c r="E116">
         <v>15</v>
       </c>
@@ -16020,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:42">
+    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -16031,7 +15870,7 @@
         <v>61</v>
       </c>
       <c r="D117" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E117">
         <v>5</v>
@@ -16148,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:42">
+    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -16159,7 +15998,7 @@
         <v>61</v>
       </c>
       <c r="D118" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E118">
         <v>10</v>
@@ -16276,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:42">
+    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -16287,7 +16126,7 @@
         <v>61</v>
       </c>
       <c r="D119" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E119">
         <v>27</v>
@@ -16404,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:42">
+    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -16415,7 +16254,7 @@
         <v>61</v>
       </c>
       <c r="D120" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E120">
         <v>14</v>
@@ -16532,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:42">
+    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -16543,7 +16382,7 @@
         <v>61</v>
       </c>
       <c r="D121" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E121">
         <v>41</v>
@@ -16660,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:42">
+    <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -16671,7 +16510,7 @@
         <v>61</v>
       </c>
       <c r="D122" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E122">
         <v>22</v>
@@ -16788,7 +16627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:42">
+    <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -16799,7 +16638,7 @@
         <v>62</v>
       </c>
       <c r="D123" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E123">
         <v>51</v>
@@ -16916,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:42">
+    <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -16927,7 +16766,7 @@
         <v>62</v>
       </c>
       <c r="D124" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E124">
         <v>20</v>
@@ -17010,9 +16849,6 @@
       <c r="AE124">
         <v>0</v>
       </c>
-      <c r="AF124">
-        <v>112</v>
-      </c>
       <c r="AG124">
         <v>110</v>
       </c>
@@ -17044,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:42">
+    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -17055,7 +16891,7 @@
         <v>62</v>
       </c>
       <c r="D125" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E125">
         <v>19</v>
@@ -17172,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:42">
+    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -17183,7 +17019,7 @@
         <v>62</v>
       </c>
       <c r="D126" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E126">
         <v>13</v>
@@ -17300,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:42">
+    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -17311,7 +17147,7 @@
         <v>62</v>
       </c>
       <c r="D127" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E127">
         <v>10</v>
@@ -17428,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:42">
+    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -17439,7 +17275,7 @@
         <v>62</v>
       </c>
       <c r="D128" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E128">
         <v>18</v>
@@ -17556,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:42">
+    <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -17567,7 +17403,7 @@
         <v>62</v>
       </c>
       <c r="D129" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E129">
         <v>21</v>
@@ -17684,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:42">
+    <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -17695,7 +17531,7 @@
         <v>62</v>
       </c>
       <c r="D130" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -17772,9 +17608,6 @@
       <c r="AC130">
         <v>0</v>
       </c>
-      <c r="AD130">
-        <v>0</v>
-      </c>
       <c r="AE130">
         <v>0</v>
       </c>
@@ -17812,7 +17645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:42">
+    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -17823,7 +17656,7 @@
         <v>63</v>
       </c>
       <c r="D131" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E131">
         <v>58</v>
@@ -17909,15 +17742,9 @@
       <c r="AF131">
         <v>227</v>
       </c>
-      <c r="AG131">
-        <v>132</v>
-      </c>
       <c r="AH131">
         <v>359</v>
       </c>
-      <c r="AI131">
-        <v>227</v>
-      </c>
       <c r="AJ131">
         <v>132</v>
       </c>
@@ -17940,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:42">
+    <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -17951,7 +17778,7 @@
         <v>63</v>
       </c>
       <c r="D132" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E132">
         <v>32</v>
@@ -18068,7 +17895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:42">
+    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -18079,7 +17906,7 @@
         <v>63</v>
       </c>
       <c r="D133" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E133">
         <v>45</v>
@@ -18196,7 +18023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:42">
+    <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -18207,7 +18034,7 @@
         <v>63</v>
       </c>
       <c r="D134" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E134">
         <v>4</v>
@@ -18324,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:42">
+    <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -18335,7 +18162,7 @@
         <v>63</v>
       </c>
       <c r="D135" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -18452,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:42">
+    <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -18463,7 +18290,7 @@
         <v>63</v>
       </c>
       <c r="D136" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -18580,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:42">
+    <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -18591,7 +18418,7 @@
         <v>64</v>
       </c>
       <c r="D137" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E137">
         <v>46</v>
@@ -18708,7 +18535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:42">
+    <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -18719,7 +18546,7 @@
         <v>64</v>
       </c>
       <c r="D138" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E138">
         <v>10</v>
@@ -18836,7 +18663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:42">
+    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -18847,7 +18674,7 @@
         <v>64</v>
       </c>
       <c r="D139" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E139">
         <v>4</v>
@@ -18964,7 +18791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:42">
+    <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -18975,7 +18802,7 @@
         <v>64</v>
       </c>
       <c r="D140" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E140">
         <v>11</v>
@@ -19092,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:42">
+    <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -19103,7 +18930,7 @@
         <v>64</v>
       </c>
       <c r="D141" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -19220,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:42">
+    <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -19231,7 +19058,7 @@
         <v>64</v>
       </c>
       <c r="D142" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -19348,7 +19175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:42">
+    <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -19359,7 +19186,7 @@
         <v>64</v>
       </c>
       <c r="D143" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E143">
         <v>32</v>
@@ -19476,7 +19303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:42">
+    <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -19487,7 +19314,7 @@
         <v>65</v>
       </c>
       <c r="D144" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E144">
         <v>3</v>
@@ -19604,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:42">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -19615,7 +19442,7 @@
         <v>65</v>
       </c>
       <c r="D145" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E145">
         <v>7</v>
@@ -19732,7 +19559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:42">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -19743,7 +19570,7 @@
         <v>65</v>
       </c>
       <c r="D146" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E146">
         <v>3</v>
@@ -19860,7 +19687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:42">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -19871,7 +19698,7 @@
         <v>66</v>
       </c>
       <c r="D147" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -19988,7 +19815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:42">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -19999,7 +19826,7 @@
         <v>66</v>
       </c>
       <c r="D148" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E148">
         <v>27</v>
@@ -20116,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:42">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -20127,7 +19954,7 @@
         <v>66</v>
       </c>
       <c r="D149" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E149">
         <v>10</v>
@@ -20244,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:42">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -20255,7 +20082,7 @@
         <v>66</v>
       </c>
       <c r="D150" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E150">
         <v>12</v>
@@ -20372,7 +20199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:42">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -20383,7 +20210,7 @@
         <v>66</v>
       </c>
       <c r="D151" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -20500,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:42">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -20511,7 +20338,7 @@
         <v>66</v>
       </c>
       <c r="D152" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E152">
         <v>22</v>
@@ -20628,7 +20455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:42">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -20639,7 +20466,7 @@
         <v>66</v>
       </c>
       <c r="D153" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E153">
         <v>9</v>
@@ -20756,7 +20583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:42">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -20767,7 +20594,7 @@
         <v>66</v>
       </c>
       <c r="D154" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E154">
         <v>8</v>
@@ -20884,7 +20711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:42">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -20895,7 +20722,7 @@
         <v>67</v>
       </c>
       <c r="D155" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -21012,7 +20839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:42">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -21023,7 +20850,7 @@
         <v>67</v>
       </c>
       <c r="D156" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E156">
         <v>9</v>
@@ -21140,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:42">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -21150,9 +20977,6 @@
       <c r="C157" t="s">
         <v>67</v>
       </c>
-      <c r="D157" t="s">
-        <v>228</v>
-      </c>
       <c r="E157">
         <v>12</v>
       </c>
@@ -21268,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:42">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -21279,7 +21103,7 @@
         <v>67</v>
       </c>
       <c r="D158" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E158">
         <v>19</v>
@@ -21396,7 +21220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:42">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -21407,7 +21231,7 @@
         <v>67</v>
       </c>
       <c r="D159" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E159">
         <v>12</v>
@@ -21524,7 +21348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:42">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -21535,7 +21359,7 @@
         <v>67</v>
       </c>
       <c r="D160" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -21652,7 +21476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:42">
+    <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -21663,7 +21487,7 @@
         <v>67</v>
       </c>
       <c r="D161" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -21780,7 +21604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:42">
+    <row r="162" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -21791,7 +21615,7 @@
         <v>67</v>
       </c>
       <c r="D162" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E162">
         <v>18</v>
@@ -21908,7 +21732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:42">
+    <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -21919,7 +21743,7 @@
         <v>68</v>
       </c>
       <c r="D163" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E163">
         <v>107</v>
@@ -22036,7 +21860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:42">
+    <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -22047,7 +21871,7 @@
         <v>68</v>
       </c>
       <c r="D164" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E164">
         <v>28</v>
@@ -22164,7 +21988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:42">
+    <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -22175,7 +21999,7 @@
         <v>68</v>
       </c>
       <c r="D165" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E165">
         <v>11</v>
@@ -22292,7 +22116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:42">
+    <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -22302,9 +22126,6 @@
       <c r="C166" t="s">
         <v>68</v>
       </c>
-      <c r="D166" t="s">
-        <v>237</v>
-      </c>
       <c r="E166">
         <v>7</v>
       </c>
@@ -22420,7 +22241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:42">
+    <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -22431,7 +22252,7 @@
         <v>68</v>
       </c>
       <c r="D167" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E167">
         <v>17</v>
@@ -22548,7 +22369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:42">
+    <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -22559,7 +22380,7 @@
         <v>68</v>
       </c>
       <c r="D168" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -22676,7 +22497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:42">
+    <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -22687,7 +22508,7 @@
         <v>69</v>
       </c>
       <c r="D169" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E169">
         <v>69</v>
@@ -22804,7 +22625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:42">
+    <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -22815,7 +22636,7 @@
         <v>69</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E170">
         <v>81</v>
@@ -22932,7 +22753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:42">
+    <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -22943,7 +22764,7 @@
         <v>69</v>
       </c>
       <c r="D171" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E171">
         <v>56</v>
@@ -23060,7 +22881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:42">
+    <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -23071,7 +22892,7 @@
         <v>69</v>
       </c>
       <c r="D172" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E172">
         <v>13</v>
@@ -23188,7 +23009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:42">
+    <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -23199,7 +23020,7 @@
         <v>69</v>
       </c>
       <c r="D173" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E173">
         <v>12</v>
@@ -23316,7 +23137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:42">
+    <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -23327,7 +23148,7 @@
         <v>69</v>
       </c>
       <c r="D174" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E174">
         <v>7</v>
@@ -23444,7 +23265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:42">
+    <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -23455,7 +23276,7 @@
         <v>69</v>
       </c>
       <c r="D175" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E175">
         <v>2</v>
@@ -23572,7 +23393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:42">
+    <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -23583,7 +23404,7 @@
         <v>69</v>
       </c>
       <c r="D176" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E176">
         <v>18</v>
@@ -23700,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:42">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -23711,7 +23532,7 @@
         <v>70</v>
       </c>
       <c r="D177" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E177">
         <v>44</v>
@@ -23828,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:42">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -23839,7 +23660,7 @@
         <v>70</v>
       </c>
       <c r="D178" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E178">
         <v>12</v>
@@ -23956,7 +23777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:42">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -23967,7 +23788,7 @@
         <v>70</v>
       </c>
       <c r="D179" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E179">
         <v>37</v>
@@ -24084,7 +23905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:42">
+    <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -24095,7 +23916,7 @@
         <v>70</v>
       </c>
       <c r="D180" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E180">
         <v>53</v>
@@ -24212,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:42">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -24223,7 +24044,7 @@
         <v>70</v>
       </c>
       <c r="D181" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E181">
         <v>23</v>
@@ -24340,7 +24161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:42">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -24351,7 +24172,7 @@
         <v>70</v>
       </c>
       <c r="D182" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E182">
         <v>18</v>
@@ -24468,7 +24289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:42">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -24479,7 +24300,7 @@
         <v>71</v>
       </c>
       <c r="D183" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E183">
         <v>11</v>
@@ -24596,7 +24417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:42">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -24607,7 +24428,7 @@
         <v>71</v>
       </c>
       <c r="D184" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E184">
         <v>4</v>
@@ -24724,7 +24545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:42">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -24735,7 +24556,7 @@
         <v>71</v>
       </c>
       <c r="D185" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -24852,7 +24673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:42">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -24863,7 +24684,7 @@
         <v>71</v>
       </c>
       <c r="D186" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E186">
         <v>13</v>
@@ -24980,7 +24801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:42">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -24991,7 +24812,7 @@
         <v>72</v>
       </c>
       <c r="D187" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E187">
         <v>35</v>
@@ -25108,7 +24929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:42">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -25119,7 +24940,7 @@
         <v>72</v>
       </c>
       <c r="D188" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E188">
         <v>27</v>
@@ -25236,7 +25057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:42">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -25247,7 +25068,7 @@
         <v>73</v>
       </c>
       <c r="D189" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -25364,7 +25185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:42">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -25374,9 +25195,6 @@
       <c r="C190" t="s">
         <v>73</v>
       </c>
-      <c r="D190" t="s">
-        <v>259</v>
-      </c>
       <c r="E190">
         <v>12</v>
       </c>
@@ -25492,7 +25310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:42">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -25503,7 +25321,7 @@
         <v>74</v>
       </c>
       <c r="D191" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -25620,7 +25438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:42">
+    <row r="192" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -25631,7 +25449,7 @@
         <v>74</v>
       </c>
       <c r="D192" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -25748,7 +25566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:42">
+    <row r="193" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -25759,7 +25577,7 @@
         <v>75</v>
       </c>
       <c r="D193" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -25876,7 +25694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:42">
+    <row r="194" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -26004,7 +25822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:42">
+    <row r="195" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -26015,7 +25833,7 @@
         <v>76</v>
       </c>
       <c r="D195" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -26132,7 +25950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:42">
+    <row r="196" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -26142,9 +25960,6 @@
       <c r="C196" t="s">
         <v>76</v>
       </c>
-      <c r="D196" t="s">
-        <v>264</v>
-      </c>
       <c r="E196">
         <v>2</v>
       </c>
@@ -26260,7 +26075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:42">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -26388,7 +26203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:42">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -26399,7 +26214,7 @@
         <v>76</v>
       </c>
       <c r="D198" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E198">
         <v>9</v>

--- a/data/Region_Junin.xlsx
+++ b/data/Region_Junin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\GitHub\1ECO35_2022_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B929B-D4C0-48DB-8D8E-065FE6386D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D439F5-5435-4745-AC6F-7472A9DD74E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q28" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42"/>
+    <sheetView tabSelected="1" topLeftCell="R178" workbookViewId="0">
+      <selection activeCell="AO190" sqref="AO190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AN67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO67">
         <v>48</v>
@@ -11146,6 +11146,9 @@
       <c r="AM79">
         <v>0</v>
       </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
       <c r="AO79">
         <v>0</v>
       </c>
@@ -12287,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="AN88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO88">
         <v>197</v>
@@ -14066,6 +14069,9 @@
       <c r="AM102">
         <v>0</v>
       </c>
+      <c r="AN102">
+        <v>0</v>
+      </c>
       <c r="AO102">
         <v>0</v>
       </c>
@@ -20318,7 +20324,7 @@
         <v>0</v>
       </c>
       <c r="AN151">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AO151">
         <v>17</v>
@@ -25557,7 +25563,7 @@
         <v>2</v>
       </c>
       <c r="AN192">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO192">
         <v>26</v>
@@ -26066,7 +26072,7 @@
         <v>0</v>
       </c>
       <c r="AN196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO196">
         <v>26</v>

--- a/data/Region_Junin.xlsx
+++ b/data/Region_Junin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\GitHub\1ECO35_2022_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D439F5-5435-4745-AC6F-7472A9DD74E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF50515B-2517-4185-804C-9C62151A1A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R178" workbookViewId="0">
-      <selection activeCell="AO190" sqref="AO190"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
